--- a/Training Docs/Access Types.xlsx
+++ b/Training Docs/Access Types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DevWebApps_Training\Training Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A57D2-6723-409F-A42D-15D64F83563D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322FB2A-B902-42B7-B27F-42AC5132B000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0CA3296D-9AC0-4F77-BB36-C00D4A10DFBC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>AQA_Reports</t>
   </si>
@@ -108,18 +108,12 @@
     <t>People Manager</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>Admin - Client Admin</t>
   </si>
   <si>
     <t>Coaching  Feedback</t>
   </si>
   <si>
-    <t>Campaign Management</t>
-  </si>
-  <si>
     <t>AQA_Coach</t>
   </si>
   <si>
@@ -157,6 +151,51 @@
   </si>
   <si>
     <t xml:space="preserve">For AQA Reports to work you need to assign both AQA Reports + IA Coach </t>
+  </si>
+  <si>
+    <t>Training Documentation</t>
+  </si>
+  <si>
+    <t>Calibration Feature - Genii App</t>
+  </si>
+  <si>
+    <t>Copy Campaign across Sites Feature - Genii App</t>
+  </si>
+  <si>
+    <t>Dynamic Filter Interactive Reports</t>
+  </si>
+  <si>
+    <t>Export Page - Genii App</t>
+  </si>
+  <si>
+    <t>Genii Analytics Send Coaching Feedback Workflow_v1</t>
+  </si>
+  <si>
+    <t>How to Assign Users to a campaign</t>
+  </si>
+  <si>
+    <t>How to update the campaign dates</t>
+  </si>
+  <si>
+    <t>PDF Reporting</t>
+  </si>
+  <si>
+    <t>Personel Manager Training Manual</t>
+  </si>
+  <si>
+    <t>Using the Auditing function v1</t>
+  </si>
+  <si>
+    <t>Action/Page</t>
+  </si>
+  <si>
+    <t>Edit Campaign</t>
+  </si>
+  <si>
+    <t>Campaign Management Page</t>
+  </si>
+  <si>
+    <t>Updating existing list using the List Wizard v1</t>
   </si>
 </sst>
 </file>
@@ -523,87 +562,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D405A8-1995-40BB-BDDB-877D55CDE44D}">
-  <dimension ref="A2:O28"/>
+  <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
@@ -640,14 +680,17 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -655,30 +698,30 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -691,60 +734,68 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -757,56 +808,66 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -820,30 +881,32 @@
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -851,34 +914,37 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -886,23 +952,23 @@
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -915,20 +981,21 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -936,47 +1003,54 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -984,47 +1058,47 @@
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1032,25 +1106,24 @@
       <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1058,27 +1131,28 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -1086,72 +1160,106 @@
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
